--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tnfsf12-Tnfrsf12a.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tnfsf12-Tnfrsf12a.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.71816744296797</v>
+        <v>4.029909</v>
       </c>
       <c r="H2">
-        <v>3.71816744296797</v>
+        <v>12.089727</v>
       </c>
       <c r="I2">
-        <v>0.1142184352867845</v>
+        <v>0.1172342245207114</v>
       </c>
       <c r="J2">
-        <v>0.1142184352867845</v>
+        <v>0.1172342245207114</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.12333683518588</v>
+        <v>3.175664333333333</v>
       </c>
       <c r="N2">
-        <v>2.12333683518588</v>
+        <v>9.526992999999999</v>
       </c>
       <c r="O2">
-        <v>0.03004884779064177</v>
+        <v>0.04211436624069606</v>
       </c>
       <c r="P2">
-        <v>0.03004884779064177</v>
+        <v>0.04211436624069605</v>
       </c>
       <c r="Q2">
-        <v>7.894921891042786</v>
+        <v>12.797638277879</v>
       </c>
       <c r="R2">
-        <v>7.894921891042786</v>
+        <v>115.178744500911</v>
       </c>
       <c r="S2">
-        <v>0.003432132376817856</v>
+        <v>0.004937245067409231</v>
       </c>
       <c r="T2">
-        <v>0.003432132376817856</v>
+        <v>0.00493724506740923</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.71816744296797</v>
+        <v>4.029909</v>
       </c>
       <c r="H3">
-        <v>3.71816744296797</v>
+        <v>12.089727</v>
       </c>
       <c r="I3">
-        <v>0.1142184352867845</v>
+        <v>0.1172342245207114</v>
       </c>
       <c r="J3">
-        <v>0.1142184352867845</v>
+        <v>0.1172342245207114</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>19.1538360259681</v>
+        <v>19.658112</v>
       </c>
       <c r="N3">
-        <v>19.1538360259681</v>
+        <v>58.974336</v>
       </c>
       <c r="O3">
-        <v>0.2710595388417692</v>
+        <v>0.2606978702625127</v>
       </c>
       <c r="P3">
-        <v>0.2710595388417692</v>
+        <v>0.2606978702625127</v>
       </c>
       <c r="Q3">
-        <v>71.2171695197016</v>
+        <v>79.220402471808</v>
       </c>
       <c r="R3">
-        <v>71.2171695197016</v>
+        <v>712.983622246272</v>
       </c>
       <c r="S3">
-        <v>0.03095999639606428</v>
+        <v>0.0305627126544267</v>
       </c>
       <c r="T3">
-        <v>0.03095999639606428</v>
+        <v>0.0305627126544267</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.71816744296797</v>
+        <v>4.029909</v>
       </c>
       <c r="H4">
-        <v>3.71816744296797</v>
+        <v>12.089727</v>
       </c>
       <c r="I4">
-        <v>0.1142184352867845</v>
+        <v>0.1172342245207114</v>
       </c>
       <c r="J4">
-        <v>0.1142184352867845</v>
+        <v>0.1172342245207114</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.122848108301209</v>
+        <v>9.985787333333334</v>
       </c>
       <c r="N4">
-        <v>8.122848108301209</v>
+        <v>29.957362</v>
       </c>
       <c r="O4">
-        <v>0.1149521933534762</v>
+        <v>0.1324274422027088</v>
       </c>
       <c r="P4">
-        <v>0.1149521933534762</v>
+        <v>0.1324274422027088</v>
       </c>
       <c r="Q4">
-        <v>30.20210938045952</v>
+        <v>40.241814246686</v>
       </c>
       <c r="R4">
-        <v>30.20210938045952</v>
+        <v>362.176328220174</v>
       </c>
       <c r="S4">
-        <v>0.01312965965761797</v>
+        <v>0.0155250284918959</v>
       </c>
       <c r="T4">
-        <v>0.01312965965761797</v>
+        <v>0.01552502849189589</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.71816744296797</v>
+        <v>4.029909</v>
       </c>
       <c r="H5">
-        <v>3.71816744296797</v>
+        <v>12.089727</v>
       </c>
       <c r="I5">
-        <v>0.1142184352867845</v>
+        <v>0.1172342245207114</v>
       </c>
       <c r="J5">
-        <v>0.1142184352867845</v>
+        <v>0.1172342245207114</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.2346908427789</v>
+        <v>10.739333</v>
       </c>
       <c r="N5">
-        <v>10.2346908427789</v>
+        <v>32.217999</v>
       </c>
       <c r="O5">
-        <v>0.1448383799605755</v>
+        <v>0.1424206577488174</v>
       </c>
       <c r="P5">
-        <v>0.1448383799605755</v>
+        <v>0.1424206577488174</v>
       </c>
       <c r="Q5">
-        <v>38.05429428046292</v>
+        <v>43.278534710697</v>
       </c>
       <c r="R5">
-        <v>38.05429428046292</v>
+        <v>389.506812396273</v>
       </c>
       <c r="S5">
-        <v>0.0165432131285697</v>
+        <v>0.01669657536691226</v>
       </c>
       <c r="T5">
-        <v>0.0165432131285697</v>
+        <v>0.01669657536691226</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.71816744296797</v>
+        <v>4.029909</v>
       </c>
       <c r="H6">
-        <v>3.71816744296797</v>
+        <v>12.089727</v>
       </c>
       <c r="I6">
-        <v>0.1142184352867845</v>
+        <v>0.1172342245207114</v>
       </c>
       <c r="J6">
-        <v>0.1142184352867845</v>
+        <v>0.1172342245207114</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.44782970440254</v>
+        <v>8.480710666666667</v>
       </c>
       <c r="N6">
-        <v>8.44782970440254</v>
+        <v>25.442132</v>
       </c>
       <c r="O6">
-        <v>0.1195512387588906</v>
+        <v>0.112467728798807</v>
       </c>
       <c r="P6">
-        <v>0.1195512387588906</v>
+        <v>0.112467728798807</v>
       </c>
       <c r="Q6">
-        <v>31.41044537064726</v>
+        <v>34.176492241996</v>
       </c>
       <c r="R6">
-        <v>31.41044537064726</v>
+        <v>307.588430177964</v>
       </c>
       <c r="S6">
-        <v>0.01365495542763727</v>
+        <v>0.01318506696933382</v>
       </c>
       <c r="T6">
-        <v>0.01365495542763727</v>
+        <v>0.01318506696933382</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.71816744296797</v>
+        <v>4.029909</v>
       </c>
       <c r="H7">
-        <v>3.71816744296797</v>
+        <v>12.089727</v>
       </c>
       <c r="I7">
-        <v>0.1142184352867845</v>
+        <v>0.1172342245207114</v>
       </c>
       <c r="J7">
-        <v>0.1142184352867845</v>
+        <v>0.1172342245207114</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.5802955405353</v>
+        <v>23.366118</v>
       </c>
       <c r="N7">
-        <v>22.5802955405353</v>
+        <v>70.098354</v>
       </c>
       <c r="O7">
-        <v>0.3195498012946469</v>
+        <v>0.309871934746458</v>
       </c>
       <c r="P7">
-        <v>0.3195498012946469</v>
+        <v>0.309871934746458</v>
       </c>
       <c r="Q7">
-        <v>83.95731973141319</v>
+        <v>94.163329223262</v>
       </c>
       <c r="R7">
-        <v>83.95731973141319</v>
+        <v>847.469963009358</v>
       </c>
       <c r="S7">
-        <v>0.03649847830007748</v>
+        <v>0.03632759597073348</v>
       </c>
       <c r="T7">
-        <v>0.03649847830007748</v>
+        <v>0.03632759597073348</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.64567612560023</v>
+        <v>3.678840333333333</v>
       </c>
       <c r="H8">
-        <v>3.64567612560023</v>
+        <v>11.036521</v>
       </c>
       <c r="I8">
-        <v>0.1119915735414158</v>
+        <v>0.1070212735855447</v>
       </c>
       <c r="J8">
-        <v>0.1119915735414158</v>
+        <v>0.1070212735855447</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.12333683518588</v>
+        <v>3.175664333333333</v>
       </c>
       <c r="N8">
-        <v>2.12333683518588</v>
+        <v>9.526992999999999</v>
       </c>
       <c r="O8">
-        <v>0.03004884779064177</v>
+        <v>0.04211436624069606</v>
       </c>
       <c r="P8">
-        <v>0.03004884779064177</v>
+        <v>0.04211436624069605</v>
       </c>
       <c r="Q8">
-        <v>7.740998406644714</v>
+        <v>11.68276203459478</v>
       </c>
       <c r="R8">
-        <v>7.740998406644714</v>
+        <v>105.144858311353</v>
       </c>
       <c r="S8">
-        <v>0.003365217747180467</v>
+        <v>0.00450713311132736</v>
       </c>
       <c r="T8">
-        <v>0.003365217747180467</v>
+        <v>0.00450713311132736</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.64567612560023</v>
+        <v>3.678840333333333</v>
       </c>
       <c r="H9">
-        <v>3.64567612560023</v>
+        <v>11.036521</v>
       </c>
       <c r="I9">
-        <v>0.1119915735414158</v>
+        <v>0.1070212735855447</v>
       </c>
       <c r="J9">
-        <v>0.1119915735414158</v>
+        <v>0.1070212735855447</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.1538360259681</v>
+        <v>19.658112</v>
       </c>
       <c r="N9">
-        <v>19.1538360259681</v>
+        <v>58.974336</v>
       </c>
       <c r="O9">
-        <v>0.2710595388417692</v>
+        <v>0.2606978702625127</v>
       </c>
       <c r="P9">
-        <v>0.2710595388417692</v>
+        <v>0.2606978702625127</v>
       </c>
       <c r="Q9">
-        <v>69.8286827135335</v>
+        <v>72.31905530278399</v>
       </c>
       <c r="R9">
-        <v>69.8286827135335</v>
+        <v>650.8714977250561</v>
       </c>
       <c r="S9">
-        <v>0.03035638427830024</v>
+        <v>0.0279002180965332</v>
       </c>
       <c r="T9">
-        <v>0.03035638427830024</v>
+        <v>0.0279002180965332</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.64567612560023</v>
+        <v>3.678840333333333</v>
       </c>
       <c r="H10">
-        <v>3.64567612560023</v>
+        <v>11.036521</v>
       </c>
       <c r="I10">
-        <v>0.1119915735414158</v>
+        <v>0.1070212735855447</v>
       </c>
       <c r="J10">
-        <v>0.1119915735414158</v>
+        <v>0.1070212735855447</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.122848108301209</v>
+        <v>9.985787333333334</v>
       </c>
       <c r="N10">
-        <v>8.122848108301209</v>
+        <v>29.957362</v>
       </c>
       <c r="O10">
-        <v>0.1149521933534762</v>
+        <v>0.1324274422027088</v>
       </c>
       <c r="P10">
-        <v>0.1149521933534762</v>
+        <v>0.1324274422027088</v>
       </c>
       <c r="Q10">
-        <v>29.61327342031071</v>
+        <v>36.73611720195579</v>
       </c>
       <c r="R10">
-        <v>29.61327342031071</v>
+        <v>330.6250548176021</v>
       </c>
       <c r="S10">
-        <v>0.01287367701569288</v>
+        <v>0.01417255352221</v>
       </c>
       <c r="T10">
-        <v>0.01287367701569288</v>
+        <v>0.01417255352221</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.64567612560023</v>
+        <v>3.678840333333333</v>
       </c>
       <c r="H11">
-        <v>3.64567612560023</v>
+        <v>11.036521</v>
       </c>
       <c r="I11">
-        <v>0.1119915735414158</v>
+        <v>0.1070212735855447</v>
       </c>
       <c r="J11">
-        <v>0.1119915735414158</v>
+        <v>0.1070212735855447</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.2346908427789</v>
+        <v>10.739333</v>
       </c>
       <c r="N11">
-        <v>10.2346908427789</v>
+        <v>32.217999</v>
       </c>
       <c r="O11">
-        <v>0.1448383799605755</v>
+        <v>0.1424206577488174</v>
       </c>
       <c r="P11">
-        <v>0.1448383799605755</v>
+        <v>0.1424206577488174</v>
       </c>
       <c r="Q11">
-        <v>37.31236805841834</v>
+        <v>39.50829139349767</v>
       </c>
       <c r="R11">
-        <v>37.31236805841834</v>
+        <v>355.574622541479</v>
       </c>
       <c r="S11">
-        <v>0.01622067808097431</v>
+        <v>0.01524204017716941</v>
       </c>
       <c r="T11">
-        <v>0.01622067808097431</v>
+        <v>0.01524204017716941</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.64567612560023</v>
+        <v>3.678840333333333</v>
       </c>
       <c r="H12">
-        <v>3.64567612560023</v>
+        <v>11.036521</v>
       </c>
       <c r="I12">
-        <v>0.1119915735414158</v>
+        <v>0.1070212735855447</v>
       </c>
       <c r="J12">
-        <v>0.1119915735414158</v>
+        <v>0.1070212735855447</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.44782970440254</v>
+        <v>8.480710666666667</v>
       </c>
       <c r="N12">
-        <v>8.44782970440254</v>
+        <v>25.442132</v>
       </c>
       <c r="O12">
-        <v>0.1195512387588906</v>
+        <v>0.112467728798807</v>
       </c>
       <c r="P12">
-        <v>0.1195512387588906</v>
+        <v>0.112467728798807</v>
       </c>
       <c r="Q12">
-        <v>30.79805106647679</v>
+        <v>31.19918045586356</v>
       </c>
       <c r="R12">
-        <v>30.79805106647679</v>
+        <v>280.792624102772</v>
       </c>
       <c r="S12">
-        <v>0.01338873134743365</v>
+        <v>0.01203643957332197</v>
       </c>
       <c r="T12">
-        <v>0.01338873134743365</v>
+        <v>0.01203643957332197</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.64567612560023</v>
+        <v>3.678840333333333</v>
       </c>
       <c r="H13">
-        <v>3.64567612560023</v>
+        <v>11.036521</v>
       </c>
       <c r="I13">
-        <v>0.1119915735414158</v>
+        <v>0.1070212735855447</v>
       </c>
       <c r="J13">
-        <v>0.1119915735414158</v>
+        <v>0.1070212735855447</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>22.5802955405353</v>
+        <v>23.366118</v>
       </c>
       <c r="N13">
-        <v>22.5802955405353</v>
+        <v>70.098354</v>
       </c>
       <c r="O13">
-        <v>0.3195498012946469</v>
+        <v>0.309871934746458</v>
       </c>
       <c r="P13">
-        <v>0.3195498012946469</v>
+        <v>0.309871934746458</v>
       </c>
       <c r="Q13">
-        <v>82.32044436112689</v>
+        <v>85.960217331826</v>
       </c>
       <c r="R13">
-        <v>82.32044436112689</v>
+        <v>773.641955986434</v>
       </c>
       <c r="S13">
-        <v>0.03578688507183424</v>
+        <v>0.03316288910498272</v>
       </c>
       <c r="T13">
-        <v>0.03578688507183424</v>
+        <v>0.03316288910498272</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.92136086356658</v>
+        <v>9.448480333333332</v>
       </c>
       <c r="H14">
-        <v>8.92136086356658</v>
+        <v>28.345441</v>
       </c>
       <c r="I14">
-        <v>0.2740554033930068</v>
+        <v>0.2748660738437335</v>
       </c>
       <c r="J14">
-        <v>0.2740554033930068</v>
+        <v>0.2748660738437335</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.12333683518588</v>
+        <v>3.175664333333333</v>
       </c>
       <c r="N14">
-        <v>2.12333683518588</v>
+        <v>9.526992999999999</v>
       </c>
       <c r="O14">
-        <v>0.03004884779064177</v>
+        <v>0.04211436624069606</v>
       </c>
       <c r="P14">
-        <v>0.03004884779064177</v>
+        <v>0.04211436624069605</v>
       </c>
       <c r="Q14">
-        <v>18.94305414159663</v>
+        <v>30.00520199876811</v>
       </c>
       <c r="R14">
-        <v>18.94305414159663</v>
+        <v>270.0468179889129</v>
       </c>
       <c r="S14">
-        <v>0.008235049102759393</v>
+        <v>0.0115758105009972</v>
       </c>
       <c r="T14">
-        <v>0.008235049102759393</v>
+        <v>0.0115758105009972</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.92136086356658</v>
+        <v>9.448480333333332</v>
       </c>
       <c r="H15">
-        <v>8.92136086356658</v>
+        <v>28.345441</v>
       </c>
       <c r="I15">
-        <v>0.2740554033930068</v>
+        <v>0.2748660738437335</v>
       </c>
       <c r="J15">
-        <v>0.2740554033930068</v>
+        <v>0.2748660738437335</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.1538360259681</v>
+        <v>19.658112</v>
       </c>
       <c r="N15">
-        <v>19.1538360259681</v>
+        <v>58.974336</v>
       </c>
       <c r="O15">
-        <v>0.2710595388417692</v>
+        <v>0.2606978702625127</v>
       </c>
       <c r="P15">
-        <v>0.2710595388417692</v>
+        <v>0.2606978702625127</v>
       </c>
       <c r="Q15">
-        <v>170.8782831092435</v>
+        <v>185.739284622464</v>
       </c>
       <c r="R15">
-        <v>170.8782831092435</v>
+        <v>1671.653561602176</v>
       </c>
       <c r="S15">
-        <v>0.07428533126080346</v>
+        <v>0.07165700005847986</v>
       </c>
       <c r="T15">
-        <v>0.07428533126080346</v>
+        <v>0.07165700005847986</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.92136086356658</v>
+        <v>9.448480333333332</v>
       </c>
       <c r="H16">
-        <v>8.92136086356658</v>
+        <v>28.345441</v>
       </c>
       <c r="I16">
-        <v>0.2740554033930068</v>
+        <v>0.2748660738437335</v>
       </c>
       <c r="J16">
-        <v>0.2740554033930068</v>
+        <v>0.2748660738437335</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.122848108301209</v>
+        <v>9.985787333333334</v>
       </c>
       <c r="N16">
-        <v>8.122848108301209</v>
+        <v>29.957362</v>
       </c>
       <c r="O16">
-        <v>0.1149521933534762</v>
+        <v>0.1324274422027088</v>
       </c>
       <c r="P16">
-        <v>0.1149521933534762</v>
+        <v>0.1324274422027088</v>
       </c>
       <c r="Q16">
-        <v>72.46685921409424</v>
+        <v>94.35051523184912</v>
       </c>
       <c r="R16">
-        <v>72.46685921409424</v>
+        <v>849.154637086642</v>
       </c>
       <c r="S16">
-        <v>0.03150326972039783</v>
+        <v>0.0363998111074265</v>
       </c>
       <c r="T16">
-        <v>0.03150326972039783</v>
+        <v>0.0363998111074265</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.92136086356658</v>
+        <v>9.448480333333332</v>
       </c>
       <c r="H17">
-        <v>8.92136086356658</v>
+        <v>28.345441</v>
       </c>
       <c r="I17">
-        <v>0.2740554033930068</v>
+        <v>0.2748660738437335</v>
       </c>
       <c r="J17">
-        <v>0.2740554033930068</v>
+        <v>0.2748660738437335</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.2346908427789</v>
+        <v>10.739333</v>
       </c>
       <c r="N17">
-        <v>10.2346908427789</v>
+        <v>32.217999</v>
       </c>
       <c r="O17">
-        <v>0.1448383799605755</v>
+        <v>0.1424206577488174</v>
       </c>
       <c r="P17">
-        <v>0.1448383799605755</v>
+        <v>0.1424206577488174</v>
       </c>
       <c r="Q17">
-        <v>91.30737033547094</v>
+        <v>101.4703766436177</v>
       </c>
       <c r="R17">
-        <v>91.30737033547094</v>
+        <v>913.2333897925589</v>
       </c>
       <c r="S17">
-        <v>0.03969374064688511</v>
+        <v>0.03914660702965954</v>
       </c>
       <c r="T17">
-        <v>0.03969374064688511</v>
+        <v>0.03914660702965954</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.92136086356658</v>
+        <v>9.448480333333332</v>
       </c>
       <c r="H18">
-        <v>8.92136086356658</v>
+        <v>28.345441</v>
       </c>
       <c r="I18">
-        <v>0.2740554033930068</v>
+        <v>0.2748660738437335</v>
       </c>
       <c r="J18">
-        <v>0.2740554033930068</v>
+        <v>0.2748660738437335</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.44782970440254</v>
+        <v>8.480710666666667</v>
       </c>
       <c r="N18">
-        <v>8.44782970440254</v>
+        <v>25.442132</v>
       </c>
       <c r="O18">
-        <v>0.1195512387588906</v>
+        <v>0.112467728798807</v>
       </c>
       <c r="P18">
-        <v>0.1195512387588906</v>
+        <v>0.112467728798807</v>
       </c>
       <c r="Q18">
-        <v>75.36613730693206</v>
+        <v>80.12982794669021</v>
       </c>
       <c r="R18">
-        <v>75.36613730693206</v>
+        <v>721.168451520212</v>
       </c>
       <c r="S18">
-        <v>0.03276366296420143</v>
+        <v>0.03091356304904988</v>
       </c>
       <c r="T18">
-        <v>0.03276366296420143</v>
+        <v>0.03091356304904988</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.92136086356658</v>
+        <v>9.448480333333332</v>
       </c>
       <c r="H19">
-        <v>8.92136086356658</v>
+        <v>28.345441</v>
       </c>
       <c r="I19">
-        <v>0.2740554033930068</v>
+        <v>0.2748660738437335</v>
       </c>
       <c r="J19">
-        <v>0.2740554033930068</v>
+        <v>0.2748660738437335</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>22.5802955405353</v>
+        <v>23.366118</v>
       </c>
       <c r="N19">
-        <v>22.5802955405353</v>
+        <v>70.098354</v>
       </c>
       <c r="O19">
-        <v>0.3195498012946469</v>
+        <v>0.309871934746458</v>
       </c>
       <c r="P19">
-        <v>0.3195498012946469</v>
+        <v>0.309871934746458</v>
       </c>
       <c r="Q19">
-        <v>201.4469649230986</v>
+        <v>220.774306389346</v>
       </c>
       <c r="R19">
-        <v>201.4469649230986</v>
+        <v>1986.968757504114</v>
       </c>
       <c r="S19">
-        <v>0.08757434969795963</v>
+        <v>0.08517328209812047</v>
       </c>
       <c r="T19">
-        <v>0.08757434969795963</v>
+        <v>0.08517328209812047</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.6937529552845</v>
+        <v>11.30319166666666</v>
       </c>
       <c r="H20">
-        <v>10.6937529552845</v>
+        <v>33.909575</v>
       </c>
       <c r="I20">
-        <v>0.3285015397050115</v>
+        <v>0.328821546504061</v>
       </c>
       <c r="J20">
-        <v>0.3285015397050115</v>
+        <v>0.328821546504061</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.12333683518588</v>
+        <v>3.175664333333333</v>
       </c>
       <c r="N20">
-        <v>2.12333683518588</v>
+        <v>9.526992999999999</v>
       </c>
       <c r="O20">
-        <v>0.03004884779064177</v>
+        <v>0.04211436624069606</v>
       </c>
       <c r="P20">
-        <v>0.03004884779064177</v>
+        <v>0.04211436624069605</v>
       </c>
       <c r="Q20">
-        <v>22.70643955633344</v>
+        <v>35.89514262866388</v>
       </c>
       <c r="R20">
-        <v>22.70643955633344</v>
+        <v>323.0562836579749</v>
       </c>
       <c r="S20">
-        <v>0.009871092765587355</v>
+        <v>0.0138481110373041</v>
       </c>
       <c r="T20">
-        <v>0.009871092765587355</v>
+        <v>0.0138481110373041</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.6937529552845</v>
+        <v>11.30319166666666</v>
       </c>
       <c r="H21">
-        <v>10.6937529552845</v>
+        <v>33.909575</v>
       </c>
       <c r="I21">
-        <v>0.3285015397050115</v>
+        <v>0.328821546504061</v>
       </c>
       <c r="J21">
-        <v>0.3285015397050115</v>
+        <v>0.328821546504061</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>19.1538360259681</v>
+        <v>19.658112</v>
       </c>
       <c r="N21">
-        <v>19.1538360259681</v>
+        <v>58.974336</v>
       </c>
       <c r="O21">
-        <v>0.2710595388417692</v>
+        <v>0.2606978702625127</v>
       </c>
       <c r="P21">
-        <v>0.2710595388417692</v>
+        <v>0.2606978702625127</v>
       </c>
       <c r="Q21">
-        <v>204.8263906077311</v>
+        <v>222.1994077408</v>
       </c>
       <c r="R21">
-        <v>204.8263906077311</v>
+        <v>1999.7946696672</v>
       </c>
       <c r="S21">
-        <v>0.08904347586125155</v>
+        <v>0.08572307687003447</v>
       </c>
       <c r="T21">
-        <v>0.08904347586125155</v>
+        <v>0.08572307687003448</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.6937529552845</v>
+        <v>11.30319166666666</v>
       </c>
       <c r="H22">
-        <v>10.6937529552845</v>
+        <v>33.909575</v>
       </c>
       <c r="I22">
-        <v>0.3285015397050115</v>
+        <v>0.328821546504061</v>
       </c>
       <c r="J22">
-        <v>0.3285015397050115</v>
+        <v>0.328821546504061</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.122848108301209</v>
+        <v>9.985787333333334</v>
       </c>
       <c r="N22">
-        <v>8.122848108301209</v>
+        <v>29.957362</v>
       </c>
       <c r="O22">
-        <v>0.1149521933534762</v>
+        <v>0.1324274422027088</v>
       </c>
       <c r="P22">
-        <v>0.1149521933534762</v>
+        <v>0.1324274422027088</v>
       </c>
       <c r="Q22">
-        <v>86.86373096347317</v>
+        <v>112.8712681712389</v>
       </c>
       <c r="R22">
-        <v>86.86373096347317</v>
+        <v>1015.84141354115</v>
       </c>
       <c r="S22">
-        <v>0.03776197250908512</v>
+        <v>0.04354499634467186</v>
       </c>
       <c r="T22">
-        <v>0.03776197250908512</v>
+        <v>0.04354499634467186</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.6937529552845</v>
+        <v>11.30319166666666</v>
       </c>
       <c r="H23">
-        <v>10.6937529552845</v>
+        <v>33.909575</v>
       </c>
       <c r="I23">
-        <v>0.3285015397050115</v>
+        <v>0.328821546504061</v>
       </c>
       <c r="J23">
-        <v>0.3285015397050115</v>
+        <v>0.328821546504061</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.2346908427789</v>
+        <v>10.739333</v>
       </c>
       <c r="N23">
-        <v>10.2346908427789</v>
+        <v>32.217999</v>
       </c>
       <c r="O23">
-        <v>0.1448383799605755</v>
+        <v>0.1424206577488174</v>
       </c>
       <c r="P23">
-        <v>0.1448383799605755</v>
+        <v>0.1424206577488174</v>
       </c>
       <c r="Q23">
-        <v>109.4472554463901</v>
+        <v>121.3887392711583</v>
       </c>
       <c r="R23">
-        <v>109.4472554463901</v>
+        <v>1092.498653440425</v>
       </c>
       <c r="S23">
-        <v>0.04757963082542852</v>
+        <v>0.04683098093509172</v>
       </c>
       <c r="T23">
-        <v>0.04757963082542852</v>
+        <v>0.04683098093509173</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.6937529552845</v>
+        <v>11.30319166666666</v>
       </c>
       <c r="H24">
-        <v>10.6937529552845</v>
+        <v>33.909575</v>
       </c>
       <c r="I24">
-        <v>0.3285015397050115</v>
+        <v>0.328821546504061</v>
       </c>
       <c r="J24">
-        <v>0.3285015397050115</v>
+        <v>0.328821546504061</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.44782970440254</v>
+        <v>8.480710666666667</v>
       </c>
       <c r="N24">
-        <v>8.44782970440254</v>
+        <v>25.442132</v>
       </c>
       <c r="O24">
-        <v>0.1195512387588906</v>
+        <v>0.112467728798807</v>
       </c>
       <c r="P24">
-        <v>0.1195512387588906</v>
+        <v>0.112467728798807</v>
       </c>
       <c r="Q24">
-        <v>90.33900386719485</v>
+        <v>95.85909813487777</v>
       </c>
       <c r="R24">
-        <v>90.33900386719485</v>
+        <v>862.7318832138999</v>
       </c>
       <c r="S24">
-        <v>0.03927276600593699</v>
+        <v>0.03698181251542305</v>
       </c>
       <c r="T24">
-        <v>0.03927276600593699</v>
+        <v>0.03698181251542305</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.6937529552845</v>
+        <v>11.30319166666666</v>
       </c>
       <c r="H25">
-        <v>10.6937529552845</v>
+        <v>33.909575</v>
       </c>
       <c r="I25">
-        <v>0.3285015397050115</v>
+        <v>0.328821546504061</v>
       </c>
       <c r="J25">
-        <v>0.3285015397050115</v>
+        <v>0.328821546504061</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>22.5802955405353</v>
+        <v>23.366118</v>
       </c>
       <c r="N25">
-        <v>22.5802955405353</v>
+        <v>70.098354</v>
       </c>
       <c r="O25">
-        <v>0.3195498012946469</v>
+        <v>0.309871934746458</v>
       </c>
       <c r="P25">
-        <v>0.3195498012946469</v>
+        <v>0.309871934746458</v>
       </c>
       <c r="Q25">
-        <v>241.4681021677968</v>
+        <v>264.11171025995</v>
       </c>
       <c r="R25">
-        <v>241.4681021677968</v>
+        <v>2377.00539233955</v>
       </c>
       <c r="S25">
-        <v>0.104972601737722</v>
+        <v>0.1018925688015358</v>
       </c>
       <c r="T25">
-        <v>0.104972601737722</v>
+        <v>0.1018925688015358</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.64373357464325</v>
+        <v>3.740567333333333</v>
       </c>
       <c r="H26">
-        <v>3.64373357464325</v>
+        <v>11.221702</v>
       </c>
       <c r="I26">
-        <v>0.1119319002926516</v>
+        <v>0.1088169759145526</v>
       </c>
       <c r="J26">
-        <v>0.1119319002926516</v>
+        <v>0.1088169759145526</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.12333683518588</v>
+        <v>3.175664333333333</v>
       </c>
       <c r="N26">
-        <v>2.12333683518588</v>
+        <v>9.526992999999999</v>
       </c>
       <c r="O26">
-        <v>0.03004884779064177</v>
+        <v>0.04211436624069606</v>
       </c>
       <c r="P26">
-        <v>0.03004884779064177</v>
+        <v>0.04211436624069605</v>
       </c>
       <c r="Q26">
-        <v>7.736873716643532</v>
+        <v>11.87878626689844</v>
       </c>
       <c r="R26">
-        <v>7.736873716643532</v>
+        <v>106.909076402086</v>
       </c>
       <c r="S26">
-        <v>0.003363424634811179</v>
+        <v>0.004582757976870471</v>
       </c>
       <c r="T26">
-        <v>0.003363424634811179</v>
+        <v>0.00458275797687047</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>3.64373357464325</v>
+        <v>3.740567333333333</v>
       </c>
       <c r="H27">
-        <v>3.64373357464325</v>
+        <v>11.221702</v>
       </c>
       <c r="I27">
-        <v>0.1119319002926516</v>
+        <v>0.1088169759145526</v>
       </c>
       <c r="J27">
-        <v>0.1119319002926516</v>
+        <v>0.1088169759145526</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>19.1538360259681</v>
+        <v>19.658112</v>
       </c>
       <c r="N27">
-        <v>19.1538360259681</v>
+        <v>58.974336</v>
       </c>
       <c r="O27">
-        <v>0.2710595388417692</v>
+        <v>0.2606978702625127</v>
       </c>
       <c r="P27">
-        <v>0.2710595388417692</v>
+        <v>0.2606978702625127</v>
       </c>
       <c r="Q27">
-        <v>69.79147541103141</v>
+        <v>73.532491582208</v>
       </c>
       <c r="R27">
-        <v>69.79147541103141</v>
+        <v>661.792424239872</v>
       </c>
       <c r="S27">
-        <v>0.03034020927500903</v>
+        <v>0.028368353869331</v>
       </c>
       <c r="T27">
-        <v>0.03034020927500903</v>
+        <v>0.028368353869331</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>3.64373357464325</v>
+        <v>3.740567333333333</v>
       </c>
       <c r="H28">
-        <v>3.64373357464325</v>
+        <v>11.221702</v>
       </c>
       <c r="I28">
-        <v>0.1119319002926516</v>
+        <v>0.1088169759145526</v>
       </c>
       <c r="J28">
-        <v>0.1119319002926516</v>
+        <v>0.1088169759145526</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>8.122848108301209</v>
+        <v>9.985787333333334</v>
       </c>
       <c r="N28">
-        <v>8.122848108301209</v>
+        <v>29.957362</v>
       </c>
       <c r="O28">
-        <v>0.1149521933534762</v>
+        <v>0.1324274422027088</v>
       </c>
       <c r="P28">
-        <v>0.1149521933534762</v>
+        <v>0.1324274422027088</v>
       </c>
       <c r="Q28">
-        <v>29.59749437394452</v>
+        <v>37.35250989668045</v>
       </c>
       <c r="R28">
-        <v>29.59749437394452</v>
+        <v>336.172589070124</v>
       </c>
       <c r="S28">
-        <v>0.0128668174448629</v>
+        <v>0.01441035378859797</v>
       </c>
       <c r="T28">
-        <v>0.0128668174448629</v>
+        <v>0.01441035378859797</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>3.64373357464325</v>
+        <v>3.740567333333333</v>
       </c>
       <c r="H29">
-        <v>3.64373357464325</v>
+        <v>11.221702</v>
       </c>
       <c r="I29">
-        <v>0.1119319002926516</v>
+        <v>0.1088169759145526</v>
       </c>
       <c r="J29">
-        <v>0.1119319002926516</v>
+        <v>0.1088169759145526</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>10.2346908427789</v>
+        <v>10.739333</v>
       </c>
       <c r="N29">
-        <v>10.2346908427789</v>
+        <v>32.217999</v>
       </c>
       <c r="O29">
-        <v>0.1448383799605755</v>
+        <v>0.1424206577488174</v>
       </c>
       <c r="P29">
-        <v>0.1448383799605755</v>
+        <v>0.1424206577488174</v>
       </c>
       <c r="Q29">
-        <v>37.2924866499273</v>
+        <v>40.17119820158867</v>
       </c>
       <c r="R29">
-        <v>37.2924866499273</v>
+        <v>361.540783814298</v>
       </c>
       <c r="S29">
-        <v>0.01621203510429632</v>
+        <v>0.01549778528398781</v>
       </c>
       <c r="T29">
-        <v>0.01621203510429632</v>
+        <v>0.01549778528398781</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>3.64373357464325</v>
+        <v>3.740567333333333</v>
       </c>
       <c r="H30">
-        <v>3.64373357464325</v>
+        <v>11.221702</v>
       </c>
       <c r="I30">
-        <v>0.1119319002926516</v>
+        <v>0.1088169759145526</v>
       </c>
       <c r="J30">
-        <v>0.1119319002926516</v>
+        <v>0.1088169759145526</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>8.44782970440254</v>
+        <v>8.480710666666667</v>
       </c>
       <c r="N30">
-        <v>8.44782970440254</v>
+        <v>25.442132</v>
       </c>
       <c r="O30">
-        <v>0.1195512387588906</v>
+        <v>0.112467728798807</v>
       </c>
       <c r="P30">
-        <v>0.1195512387588906</v>
+        <v>0.112467728798807</v>
       </c>
       <c r="Q30">
-        <v>30.7816407268001</v>
+        <v>31.72266928318489</v>
       </c>
       <c r="R30">
-        <v>30.7816407268001</v>
+        <v>285.504023548664</v>
       </c>
       <c r="S30">
-        <v>0.01338159733662312</v>
+        <v>0.01223839813586422</v>
       </c>
       <c r="T30">
-        <v>0.01338159733662312</v>
+        <v>0.01223839813586422</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>3.64373357464325</v>
+        <v>3.740567333333333</v>
       </c>
       <c r="H31">
-        <v>3.64373357464325</v>
+        <v>11.221702</v>
       </c>
       <c r="I31">
-        <v>0.1119319002926516</v>
+        <v>0.1088169759145526</v>
       </c>
       <c r="J31">
-        <v>0.1119319002926516</v>
+        <v>0.1088169759145526</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>22.5802955405353</v>
+        <v>23.366118</v>
       </c>
       <c r="N31">
-        <v>22.5802955405353</v>
+        <v>70.098354</v>
       </c>
       <c r="O31">
-        <v>0.3195498012946469</v>
+        <v>0.309871934746458</v>
       </c>
       <c r="P31">
-        <v>0.3195498012946469</v>
+        <v>0.309871934746458</v>
       </c>
       <c r="Q31">
-        <v>82.27658098641572</v>
+        <v>87.402537697612</v>
       </c>
       <c r="R31">
-        <v>82.27658098641572</v>
+        <v>786.6228392785081</v>
       </c>
       <c r="S31">
-        <v>0.03576781649704905</v>
+        <v>0.03371932685990113</v>
       </c>
       <c r="T31">
-        <v>0.03576781649704905</v>
+        <v>0.03371932685990113</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.93043790572695</v>
+        <v>2.173862333333334</v>
       </c>
       <c r="H32">
-        <v>1.93043790572695</v>
+        <v>6.521587</v>
       </c>
       <c r="I32">
-        <v>0.05930114778112992</v>
+        <v>0.06323990563139703</v>
       </c>
       <c r="J32">
-        <v>0.05930114778112992</v>
+        <v>0.06323990563139703</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.12333683518588</v>
+        <v>3.175664333333333</v>
       </c>
       <c r="N32">
-        <v>2.12333683518588</v>
+        <v>9.526992999999999</v>
       </c>
       <c r="O32">
-        <v>0.03004884779064177</v>
+        <v>0.04211436624069606</v>
       </c>
       <c r="P32">
-        <v>0.03004884779064177</v>
+        <v>0.04211436624069605</v>
       </c>
       <c r="Q32">
-        <v>4.09896991326912</v>
+        <v>6.903457077543445</v>
       </c>
       <c r="R32">
-        <v>4.09896991326912</v>
+        <v>62.131113697891</v>
       </c>
       <c r="S32">
-        <v>0.001781931163485527</v>
+        <v>0.002663308546787712</v>
       </c>
       <c r="T32">
-        <v>0.001781931163485527</v>
+        <v>0.002663308546787712</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.93043790572695</v>
+        <v>2.173862333333334</v>
       </c>
       <c r="H33">
-        <v>1.93043790572695</v>
+        <v>6.521587</v>
       </c>
       <c r="I33">
-        <v>0.05930114778112992</v>
+        <v>0.06323990563139703</v>
       </c>
       <c r="J33">
-        <v>0.05930114778112992</v>
+        <v>0.06323990563139703</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>19.1538360259681</v>
+        <v>19.658112</v>
       </c>
       <c r="N33">
-        <v>19.1538360259681</v>
+        <v>58.974336</v>
       </c>
       <c r="O33">
-        <v>0.2710595388417692</v>
+        <v>0.2606978702625127</v>
       </c>
       <c r="P33">
-        <v>0.2710595388417692</v>
+        <v>0.2606978702625127</v>
       </c>
       <c r="Q33">
-        <v>36.97529110460727</v>
+        <v>42.734029221248</v>
       </c>
       <c r="R33">
-        <v>36.97529110460727</v>
+        <v>384.606262991232</v>
       </c>
       <c r="S33">
-        <v>0.01607414177034068</v>
+        <v>0.01648650871370749</v>
       </c>
       <c r="T33">
-        <v>0.01607414177034068</v>
+        <v>0.01648650871370749</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.93043790572695</v>
+        <v>2.173862333333334</v>
       </c>
       <c r="H34">
-        <v>1.93043790572695</v>
+        <v>6.521587</v>
       </c>
       <c r="I34">
-        <v>0.05930114778112992</v>
+        <v>0.06323990563139703</v>
       </c>
       <c r="J34">
-        <v>0.05930114778112992</v>
+        <v>0.06323990563139703</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>8.122848108301209</v>
+        <v>9.985787333333334</v>
       </c>
       <c r="N34">
-        <v>8.122848108301209</v>
+        <v>29.957362</v>
       </c>
       <c r="O34">
-        <v>0.1149521933534762</v>
+        <v>0.1324274422027088</v>
       </c>
       <c r="P34">
-        <v>0.1149521933534762</v>
+        <v>0.1324274422027088</v>
       </c>
       <c r="Q34">
-        <v>15.6806538907271</v>
+        <v>21.70772695261045</v>
       </c>
       <c r="R34">
-        <v>15.6806538907271</v>
+        <v>195.369542573494</v>
       </c>
       <c r="S34">
-        <v>0.006816797005819512</v>
+        <v>0.00837469894790659</v>
       </c>
       <c r="T34">
-        <v>0.006816797005819512</v>
+        <v>0.008374698947906588</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.93043790572695</v>
+        <v>2.173862333333334</v>
       </c>
       <c r="H35">
-        <v>1.93043790572695</v>
+        <v>6.521587</v>
       </c>
       <c r="I35">
-        <v>0.05930114778112992</v>
+        <v>0.06323990563139703</v>
       </c>
       <c r="J35">
-        <v>0.05930114778112992</v>
+        <v>0.06323990563139703</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>10.2346908427789</v>
+        <v>10.739333</v>
       </c>
       <c r="N35">
-        <v>10.2346908427789</v>
+        <v>32.217999</v>
       </c>
       <c r="O35">
-        <v>0.1448383799605755</v>
+        <v>0.1424206577488174</v>
       </c>
       <c r="P35">
-        <v>0.1448383799605755</v>
+        <v>0.1424206577488174</v>
       </c>
       <c r="Q35">
-        <v>19.75743515629689</v>
+        <v>23.34583149382367</v>
       </c>
       <c r="R35">
-        <v>19.75743515629689</v>
+        <v>210.112483444413</v>
       </c>
       <c r="S35">
-        <v>0.008589082174421532</v>
+        <v>0.009006668955996708</v>
       </c>
       <c r="T35">
-        <v>0.008589082174421532</v>
+        <v>0.009006668955996708</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.93043790572695</v>
+        <v>2.173862333333334</v>
       </c>
       <c r="H36">
-        <v>1.93043790572695</v>
+        <v>6.521587</v>
       </c>
       <c r="I36">
-        <v>0.05930114778112992</v>
+        <v>0.06323990563139703</v>
       </c>
       <c r="J36">
-        <v>0.05930114778112992</v>
+        <v>0.06323990563139703</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>8.44782970440254</v>
+        <v>8.480710666666667</v>
       </c>
       <c r="N36">
-        <v>8.44782970440254</v>
+        <v>25.442132</v>
       </c>
       <c r="O36">
-        <v>0.1195512387588906</v>
+        <v>0.112467728798807</v>
       </c>
       <c r="P36">
-        <v>0.1195512387588906</v>
+        <v>0.112467728798807</v>
       </c>
       <c r="Q36">
-        <v>16.30801068250476</v>
+        <v>18.43589747816489</v>
       </c>
       <c r="R36">
-        <v>16.30801068250476</v>
+        <v>165.923077303484</v>
       </c>
       <c r="S36">
-        <v>0.007089525677058115</v>
+        <v>0.007112448555814111</v>
       </c>
       <c r="T36">
-        <v>0.007089525677058115</v>
+        <v>0.00711244855581411</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.93043790572695</v>
+        <v>2.173862333333334</v>
       </c>
       <c r="H37">
-        <v>1.93043790572695</v>
+        <v>6.521587</v>
       </c>
       <c r="I37">
-        <v>0.05930114778112992</v>
+        <v>0.06323990563139703</v>
       </c>
       <c r="J37">
-        <v>0.05930114778112992</v>
+        <v>0.06323990563139703</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>22.5802955405353</v>
+        <v>23.366118</v>
       </c>
       <c r="N37">
-        <v>22.5802955405353</v>
+        <v>70.098354</v>
       </c>
       <c r="O37">
-        <v>0.3195498012946469</v>
+        <v>0.309871934746458</v>
       </c>
       <c r="P37">
-        <v>0.3195498012946469</v>
+        <v>0.309871934746458</v>
       </c>
       <c r="Q37">
-        <v>43.58985843396655</v>
+        <v>50.79472379642201</v>
       </c>
       <c r="R37">
-        <v>43.58985843396655</v>
+        <v>457.152514167798</v>
       </c>
       <c r="S37">
-        <v>0.01894966999000456</v>
+        <v>0.01959627191118442</v>
       </c>
       <c r="T37">
-        <v>0.01894966999000456</v>
+        <v>0.01959627191118442</v>
       </c>
     </row>
   </sheetData>
